--- a/Livro1.xlsx
+++ b/Livro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrorodrigues/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78273EB5-5563-8C42-915C-4AC21D177E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D94F6B-3FFD-9549-8957-2B119843F2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{9FF93633-CEB0-554B-B820-7C505CBB71D6}"/>
+    <workbookView xWindow="13500" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{9FF93633-CEB0-554B-B820-7C505CBB71D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -140,13 +140,307 @@
   </si>
   <si>
     <t>Man City</t>
+  </si>
+  <si>
+    <t>PSH</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>6.22</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>8.58</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>13.82</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>7.09</t>
+  </si>
+  <si>
+    <t>18.57</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>P&gt;2.5</t>
+  </si>
+  <si>
+    <t>P&lt;2.5</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>1.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +449,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -181,11 +482,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,15 +802,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1988D8BB-93F5-204D-BA27-7ECFBD89E2FC}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +847,23 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44778</v>
       </c>
@@ -583,8 +900,23 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44779</v>
       </c>
@@ -621,8 +953,23 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44779</v>
       </c>
@@ -659,8 +1006,23 @@
       <c r="L4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44779</v>
       </c>
@@ -697,8 +1059,23 @@
       <c r="L5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44779</v>
       </c>
@@ -735,8 +1112,23 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44779</v>
       </c>
@@ -773,8 +1165,23 @@
       <c r="L7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44779</v>
       </c>
@@ -811,8 +1218,23 @@
       <c r="L8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44780</v>
       </c>
@@ -849,8 +1271,23 @@
       <c r="L9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44780</v>
       </c>
@@ -887,8 +1324,23 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44780</v>
       </c>
@@ -925,8 +1377,23 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44786</v>
       </c>
@@ -963,8 +1430,23 @@
       <c r="L12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44786</v>
       </c>
@@ -1001,8 +1483,23 @@
       <c r="L13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44786</v>
       </c>
@@ -1039,8 +1536,23 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44786</v>
       </c>
@@ -1077,8 +1589,23 @@
       <c r="L15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="1">
+        <v>41</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44786</v>
       </c>
@@ -1115,8 +1642,23 @@
       <c r="L16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44786</v>
       </c>
@@ -1153,8 +1695,23 @@
       <c r="L17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44786</v>
       </c>
@@ -1191,8 +1748,23 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44787</v>
       </c>
@@ -1229,8 +1801,23 @@
       <c r="L19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44787</v>
       </c>
@@ -1267,8 +1854,23 @@
       <c r="L20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44788</v>
       </c>
@@ -1305,8 +1907,23 @@
       <c r="L21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44793</v>
       </c>
@@ -1343,8 +1960,23 @@
       <c r="L22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44793</v>
       </c>
@@ -1381,8 +2013,23 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44793</v>
       </c>
@@ -1419,6 +2066,38 @@
       <c r="L24" s="1">
         <v>1</v>
       </c>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
